--- a/resultados/alexNetMNIST_1/models_metrics.xlsx
+++ b/resultados/alexNetMNIST_1/models_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.007901371463018829</v>
+        <v>0.01459800166478089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973958333333334</v>
+        <v>0.995625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04847958994945236</v>
+        <v>0.03721725193424797</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9875833333333334</v>
+        <v>0.98875</v>
       </c>
       <c r="F2" t="n">
-        <v>498.571546</v>
+        <v>485.248873</v>
       </c>
       <c r="G2" t="n">
-        <v>66.06100000000001</v>
+        <v>68.511</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008005972054173374</v>
+        <v>0.01253856423874276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9973229166666666</v>
+        <v>0.9962604166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04537411224349856</v>
+        <v>0.03396793940956219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9884166666666667</v>
+        <v>0.9904166666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>509.995513</v>
+        <v>486.779016</v>
       </c>
       <c r="G3" t="n">
-        <v>68.886</v>
+        <v>68.41</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,197 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008422309373641636</v>
+        <v>0.01236811914455312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9971874999999999</v>
+        <v>0.9962569444444443</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0418141003495665</v>
+        <v>0.03372556505816279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9891111111111112</v>
+        <v>0.9909722222222223</v>
       </c>
       <c r="F4" t="n">
-        <v>498.242385</v>
+        <v>481.135859</v>
       </c>
       <c r="G4" t="n">
-        <v>68.568</v>
+        <v>69.102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Modelo_4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01249480193151703</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9962447916666666</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03337751587840568</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9910208333333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>487.251601</v>
+      </c>
+      <c r="G5" t="n">
+        <v>69.282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Modelo_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01308071841155543</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9960041666666666</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03695834261084879</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.99025</v>
+      </c>
+      <c r="F6" t="n">
+        <v>485.332507</v>
+      </c>
+      <c r="G6" t="n">
+        <v>68.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Modelo_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01329095831837448</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9959305555555554</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03823048599875258</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9899027777777777</v>
+      </c>
+      <c r="F7" t="n">
+        <v>497.421291</v>
+      </c>
+      <c r="G7" t="n">
+        <v>68.72199999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Modelo_7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01302093538789025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9960535714285713</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03703033076772736</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9901071428571429</v>
+      </c>
+      <c r="F8" t="n">
+        <v>479.103167</v>
+      </c>
+      <c r="G8" t="n">
+        <v>69.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Modelo_8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01312289038727204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9959947916666667</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03894947530877405</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.98965625</v>
+      </c>
+      <c r="F9" t="n">
+        <v>479.403361</v>
+      </c>
+      <c r="G9" t="n">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Modelo_9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01325861852096178</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.995974537037037</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0381354177097819</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9898888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>480.680046</v>
+      </c>
+      <c r="G10" t="n">
+        <v>69.03100000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Modelo_10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01331640789260018</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9959645833333333</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03792570642450649</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9899333333333334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>484.84389</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68.447</v>
       </c>
     </row>
   </sheetData>
